--- a/학습자료/단답형/국어_복습_7일차.xlsx
+++ b/학습자료/단답형/국어_복습_7일차.xlsx
@@ -584,7 +584,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -628,7 +628,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
